--- a/biology/Zoologie/Extatosoma_tiaratum/Extatosoma_tiaratum.xlsx
+++ b/biology/Zoologie/Extatosoma_tiaratum/Extatosoma_tiaratum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Extatosoma tiaratum est une espèce de phasmes de la famille des Phasmatidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Extatosoma tiaratum (Macleay, 1827) est un insecte hémimétabole phytophage appartenant à l'ordre des phasmoptères, originaire d'Australie (Nouvelle-Galles du Sud, sud-est et nord du Queensland). L'espèce compte deux sous-espèces ayant des répartitions géographiques similaires :
 E. tiaratum tiaratum (ou Extatosoma hopii)
@@ -546,7 +560,9 @@
           <t>Données sur l'élevage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce phasme assez polyphage se nourrit en élevage de Ronces, d'Eucalyptus, de Chêne et de Rosier. Les jeunes sont parfois plus difficiles à nourrir provoquant parfois quelques pertes. L’Eucalyptus et le Pyracantha peuvent, dans certains cas, limiter les pertes.
 Ils acceptent aussi le Robinier faux-acacia, l’Églantier, l’Aulne glutineux et le Noisetier.
